--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AV-MCPS_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AV-MCPS_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.2731512533704487</v>
+        <v>0.3479797917628265</v>
       </c>
       <c r="D2">
-        <v>0.7847705426173843</v>
+        <v>0.7311629094229573</v>
       </c>
       <c r="E2">
         <v>0.648261834223002</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.9327456782673281</v>
+        <v>0.9463228493038347</v>
       </c>
       <c r="D3">
-        <v>0.351085402410001</v>
+        <v>0.3542628728215815</v>
       </c>
       <c r="E3">
         <v>0.648261834223002</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.6497187299275059</v>
+        <v>0.6213703784046531</v>
       </c>
       <c r="D4">
-        <v>0.5159627989507567</v>
+        <v>0.540741644997051</v>
       </c>
       <c r="E4">
         <v>0.648261834223002</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.179590090021542</v>
+        <v>0.2075958078937248</v>
       </c>
       <c r="D5">
-        <v>0.8574960553122026</v>
+        <v>0.8374542320256557</v>
       </c>
       <c r="E5">
         <v>0.648261834223002</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5301344248009693</v>
+        <v>0.5004385915664157</v>
       </c>
       <c r="D6">
-        <v>0.5960888313599351</v>
+        <v>0.6217357592130806</v>
       </c>
       <c r="E6">
         <v>0.6423291453266361</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.3412471338290189</v>
+        <v>0.3122318775782317</v>
       </c>
       <c r="D7">
-        <v>0.7329602415636012</v>
+        <v>0.7578044416166161</v>
       </c>
       <c r="E7">
         <v>0.6423291453266361</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.1216343578149599</v>
+        <v>-0.1138489236722984</v>
       </c>
       <c r="D8">
-        <v>0.9032031571182499</v>
+        <v>0.9103901511857988</v>
       </c>
       <c r="E8">
         <v>0.6423291453266361</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.1238918290580504</v>
+        <v>-0.1154374038163631</v>
       </c>
       <c r="D9">
-        <v>0.9014157519078096</v>
+        <v>0.9091456207495248</v>
       </c>
       <c r="E9">
         <v>0.6305651150677071</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.764200241533</v>
+        <v>-0.7804114403766289</v>
       </c>
       <c r="D10">
-        <v>0.4448553031473561</v>
+        <v>0.4434650772195803</v>
       </c>
       <c r="E10">
         <v>0.6305651150677071</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.5222650715450524</v>
+        <v>-0.4359494125534956</v>
       </c>
       <c r="D11">
-        <v>0.6015546813457715</v>
+        <v>0.6671212996994598</v>
       </c>
       <c r="E11">
         <v>0.6335797809273932</v>
